--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02127103731392737</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626877717292047</v>
+        <v>-1.626880078320729</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02282103037033825</v>
+        <v>0.01821545042141243</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2268624748033473</v>
+        <v>-0.225075963100671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.007095632622701867</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.651111315683593</v>
+        <v>-1.651517412616888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0243006083443609</v>
+        <v>0.01846099740433534</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2018796433100628</v>
+        <v>-0.2008124583458209</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.009495368982719155</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705391365081647</v>
+        <v>-1.705043506855839</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01609187034645736</v>
+        <v>-0.0216875083226813</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2119029970745055</v>
+        <v>-0.2107508150777134</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03165941738398828</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.816928721045695</v>
+        <v>-1.815874128234424</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02315606816285484</v>
+        <v>-0.02844319839130385</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2317387860411368</v>
+        <v>-0.2297791322351174</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06410353633713969</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783277766251408</v>
+        <v>-1.781304733282858</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003288798813797561</v>
+        <v>-0.008094279191128562</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2261006495486377</v>
+        <v>-0.2243660804769644</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1095998257842971</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.603415388269939</v>
+        <v>-1.604652567299282</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06017722617616747</v>
+        <v>0.05619495779927673</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2087864392143302</v>
+        <v>-0.2082260884071471</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1688492047504777</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342863281063672</v>
+        <v>-1.344483733749052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09400919316940445</v>
+        <v>0.09009775565297225</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1981633841646718</v>
+        <v>-0.1969151870014804</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2382146009068816</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9354347275914746</v>
+        <v>-0.9376721957724036</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1913638498409733</v>
+        <v>0.1862813420982934</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1729775042047395</v>
+        <v>-0.1712114547506401</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.311037217786545</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4945606288203191</v>
+        <v>-0.493214842471607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034743529602608</v>
+        <v>0.2016705270472502</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1254200904737605</v>
+        <v>-0.1249053862210952</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3800017477783702</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01808772659226663</v>
+        <v>-0.0154953170994844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1777076599445685</v>
+        <v>0.174548603568118</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0601282033030867</v>
+        <v>-0.06093882315055655</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4387289192596076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5357844178875046</v>
+        <v>0.5418727238486957</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1412455069996381</v>
+        <v>0.1387333724820422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03298919389394069</v>
+        <v>0.03244458327797065</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4829964443558556</v>
       </c>
       <c r="E13" t="n">
-        <v>1.105890995584371</v>
+        <v>1.112561688620443</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02089600498498751</v>
+        <v>0.01965725193652387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1347998986979118</v>
+        <v>0.1343355630571281</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5140123776266884</v>
       </c>
       <c r="E14" t="n">
-        <v>1.713005910861259</v>
+        <v>1.721894396839244</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1845245084786014</v>
+        <v>-0.1857176149725473</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2541184181881104</v>
+        <v>0.2540365691938028</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5375841754630835</v>
       </c>
       <c r="E15" t="n">
-        <v>2.357050462762104</v>
+        <v>2.367725460442766</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4584605002732878</v>
+        <v>-0.4582668959213679</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3782880646101578</v>
+        <v>0.3774317982081702</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.562678215629641</v>
       </c>
       <c r="E16" t="n">
-        <v>2.979977974131579</v>
+        <v>2.994070167324585</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6936488633589153</v>
+        <v>-0.6946168851185153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5274248023342767</v>
+        <v>0.5257941185246091</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5997995922980284</v>
       </c>
       <c r="E17" t="n">
-        <v>3.578561705771018</v>
+        <v>3.595189643768439</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9378295976845337</v>
+        <v>-0.9373487348429763</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6896935815874071</v>
+        <v>0.6875072690279205</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6546106181852201</v>
       </c>
       <c r="E18" t="n">
-        <v>4.149530845946357</v>
+        <v>4.166242206957206</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.159859160916087</v>
+        <v>-1.161213604369967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8247648844435831</v>
+        <v>0.823241233934164</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7282883753020922</v>
       </c>
       <c r="E19" t="n">
-        <v>4.625435527271621</v>
+        <v>4.642266513735689</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.371467143545509</v>
+        <v>-1.373998166292561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9998776597265272</v>
+        <v>0.9987317738062202</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8170747291510435</v>
       </c>
       <c r="E20" t="n">
-        <v>4.994111729977395</v>
+        <v>5.008827234742435</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.544063849263054</v>
+        <v>-1.549194364588934</v>
       </c>
       <c r="G20" t="n">
-        <v>1.135118956647803</v>
+        <v>1.132898015667648</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9141905102875713</v>
       </c>
       <c r="E21" t="n">
-        <v>5.331949750058647</v>
+        <v>5.345018830822807</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.75826660241394</v>
+        <v>-1.765732175106269</v>
       </c>
       <c r="G21" t="n">
-        <v>1.267467206424129</v>
+        <v>1.26574995156279</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.011997884746408</v>
       </c>
       <c r="E22" t="n">
-        <v>5.629650282546732</v>
+        <v>5.640714062950353</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.909491276502465</v>
+        <v>-1.920976107021035</v>
       </c>
       <c r="G22" t="n">
-        <v>1.375341032883351</v>
+        <v>1.373403415345029</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.103834123786293</v>
       </c>
       <c r="E23" t="n">
-        <v>5.793970008714917</v>
+        <v>5.804325480513953</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.038657646625081</v>
+        <v>-2.051890425377856</v>
       </c>
       <c r="G23" t="n">
-        <v>1.485364969462269</v>
+        <v>1.482816632504883</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.1847365238465</v>
       </c>
       <c r="E24" t="n">
-        <v>5.953474810391043</v>
+        <v>5.964275729601408</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.132026886881516</v>
+        <v>-2.146359905000081</v>
       </c>
       <c r="G24" t="n">
-        <v>1.524824054814156</v>
+        <v>1.522543301107391</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.251216406836055</v>
       </c>
       <c r="E25" t="n">
-        <v>6.049195635214701</v>
+        <v>6.056908328909075</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.165488959381248</v>
+        <v>-2.180215482280137</v>
       </c>
       <c r="G25" t="n">
-        <v>1.597047922195038</v>
+        <v>1.593920346201013</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.303598044678806</v>
       </c>
       <c r="E26" t="n">
-        <v>6.105109516460666</v>
+        <v>6.111583457106576</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.188669538980643</v>
+        <v>-2.201709500391059</v>
       </c>
       <c r="G26" t="n">
-        <v>1.667094921131161</v>
+        <v>1.66317246548088</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.34354273131673</v>
       </c>
       <c r="E27" t="n">
-        <v>6.093559364148562</v>
+        <v>6.099565821115445</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.184643198068356</v>
+        <v>-2.194274621071595</v>
       </c>
       <c r="G27" t="n">
-        <v>1.640147713774493</v>
+        <v>1.6350494658406</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.37365145583366</v>
       </c>
       <c r="E28" t="n">
-        <v>6.033774969883319</v>
+        <v>6.037799736776485</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.19961841598841</v>
+        <v>-2.206592894714894</v>
       </c>
       <c r="G28" t="n">
-        <v>1.633477020738421</v>
+        <v>1.628193038548214</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.39557406634994</v>
       </c>
       <c r="E29" t="n">
-        <v>5.932376658089129</v>
+        <v>5.936631231774005</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.152067298333917</v>
+        <v>-2.156111740466099</v>
       </c>
       <c r="G29" t="n">
-        <v>1.607359321458679</v>
+        <v>1.601215924828242</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.41042581432018</v>
       </c>
       <c r="E30" t="n">
-        <v>5.802395733071239</v>
+        <v>5.804419921661232</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.152873196124023</v>
+        <v>-2.152658342513965</v>
       </c>
       <c r="G30" t="n">
-        <v>1.542405848399084</v>
+        <v>1.535349520678293</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.418531744286416</v>
       </c>
       <c r="E31" t="n">
-        <v>5.604039417424048</v>
+        <v>5.6064744250047</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.097703825922434</v>
+        <v>-2.094741521936146</v>
       </c>
       <c r="G31" t="n">
-        <v>1.479607207516551</v>
+        <v>1.471540359519885</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.420172705804686</v>
       </c>
       <c r="E32" t="n">
-        <v>5.423364058566427</v>
+        <v>5.422161507957753</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.022377566853468</v>
+        <v>-2.017601992839442</v>
       </c>
       <c r="G32" t="n">
-        <v>1.436091874889072</v>
+        <v>1.428177706747172</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.413207997866975</v>
       </c>
       <c r="E33" t="n">
-        <v>5.157554727495016</v>
+        <v>5.156122370094632</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.988469259932848</v>
+        <v>-1.980082099044997</v>
       </c>
       <c r="G33" t="n">
-        <v>1.376131190482244</v>
+        <v>1.368364980137746</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.395497747500009</v>
       </c>
       <c r="E34" t="n">
-        <v>4.932292128988311</v>
+        <v>4.92926529021805</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.920563714011254</v>
+        <v>-1.909798210231118</v>
       </c>
       <c r="G34" t="n">
-        <v>1.280728317521088</v>
+        <v>1.272609526893419</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.364068416640009</v>
       </c>
       <c r="E35" t="n">
-        <v>4.642009948618917</v>
+        <v>4.63727057704468</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.883612041119599</v>
+        <v>-1.872999217194229</v>
       </c>
       <c r="G35" t="n">
-        <v>1.195317317941948</v>
+        <v>1.18652169909212</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.316866839170063</v>
       </c>
       <c r="E36" t="n">
-        <v>4.268765942423127</v>
+        <v>4.262400609096587</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.845007648150579</v>
+        <v>-1.833214309884233</v>
       </c>
       <c r="G36" t="n">
-        <v>1.14601746504369</v>
+        <v>1.137055000167003</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.254250137981706</v>
       </c>
       <c r="E37" t="n">
-        <v>3.95671035554878</v>
+        <v>3.950774729442355</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.802997864812624</v>
+        <v>-1.792856459614083</v>
       </c>
       <c r="G37" t="n">
-        <v>1.063246095530971</v>
+        <v>1.054222243908555</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.176974420565785</v>
       </c>
       <c r="E38" t="n">
-        <v>3.671239951633202</v>
+        <v>3.664098626879861</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.726191240760075</v>
+        <v>-1.715657904800331</v>
       </c>
       <c r="G38" t="n">
-        <v>0.984889849653502</v>
+        <v>0.9768576300775046</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.086785513102062</v>
       </c>
       <c r="E39" t="n">
-        <v>3.326849289949976</v>
+        <v>3.319643430412661</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.688350247064885</v>
+        <v>-1.680092155744981</v>
       </c>
       <c r="G39" t="n">
-        <v>0.901369247039045</v>
+        <v>0.8933732299028374</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9860901624394927</v>
       </c>
       <c r="E40" t="n">
-        <v>2.997917070057043</v>
+        <v>2.989107285035123</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.649904830027116</v>
+        <v>-1.643331726176564</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8401430512586908</v>
+        <v>0.8324319315834388</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8784501141241615</v>
       </c>
       <c r="E41" t="n">
-        <v>2.675328147222952</v>
+        <v>2.668147471991579</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.629851039412184</v>
+        <v>-1.622461019637678</v>
       </c>
       <c r="G41" t="n">
-        <v>0.785519865692193</v>
+        <v>0.7792820279144784</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7677433326914752</v>
       </c>
       <c r="E42" t="n">
-        <v>2.339202659945676</v>
+        <v>2.333632206275393</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.578199601946702</v>
+        <v>-1.57138409915147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7236703583398038</v>
+        <v>0.7171554931967402</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6573815318551143</v>
       </c>
       <c r="E43" t="n">
-        <v>2.081642763089002</v>
+        <v>2.07666728864657</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.525033171076968</v>
+        <v>-1.519549288458357</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6476483828192232</v>
+        <v>0.641648221928825</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5506724072147549</v>
       </c>
       <c r="E44" t="n">
-        <v>1.828145409584405</v>
+        <v>1.823865651593588</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.506345629059326</v>
+        <v>-1.501922635328471</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5619540597982499</v>
+        <v>0.5571989480328005</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4496923217352</v>
       </c>
       <c r="E45" t="n">
-        <v>1.602385421035368</v>
+        <v>1.598592034953034</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.427036314603909</v>
+        <v>-1.425641733662436</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5071750463387433</v>
+        <v>0.5036429474305445</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3574119644268348</v>
       </c>
       <c r="E46" t="n">
-        <v>1.389708679422583</v>
+        <v>1.385816130135607</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.364426556015931</v>
+        <v>-1.363277522057382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4440128070391893</v>
+        <v>0.4412252191753658</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2753224604418419</v>
       </c>
       <c r="E47" t="n">
-        <v>1.237530936756112</v>
+        <v>1.235382400655536</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.316256061837206</v>
+        <v>-1.317143808621619</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3799675430125856</v>
+        <v>0.3771783811296408</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2041826946218976</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027308090953434</v>
+        <v>1.025941842356145</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.238413733202841</v>
+        <v>-1.239712298977914</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2945785797011446</v>
+        <v>0.2922348652295279</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1432139432480682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8697487769112354</v>
+        <v>0.8690388942875288</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167797726354367</v>
+        <v>-1.169315867796862</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2496655180939508</v>
+        <v>0.2486912002578656</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09202563327253446</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7708138050418807</v>
+        <v>0.7714355425947945</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.094874207474067</v>
+        <v>-1.096776409582159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2125517212328019</v>
+        <v>0.2108045600081581</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04972434746754882</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6350168793707851</v>
+        <v>0.6364571068667753</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.062972774933105</v>
+        <v>-1.064135975063747</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1706733684914757</v>
+        <v>0.1692583253014264</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0147926602277168</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4624776253511677</v>
+        <v>0.4639446111722199</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.025999065773752</v>
+        <v>-1.028488377014089</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1278710665259462</v>
+        <v>0.1267661051027931</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01436900674605837</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4020226989402508</v>
+        <v>0.4048496372821069</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.025115254037142</v>
+        <v>-1.028807115886153</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1010670949093167</v>
+        <v>0.0996158492794775</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03921696507420736</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2461129569371751</v>
+        <v>0.2465741445397162</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9643227005247061</v>
+        <v>-0.9687354631312727</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05447927695705898</v>
+        <v>0.0536072703638584</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06032322006012239</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1275971871988398</v>
+        <v>0.1281953144649341</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9398561473032082</v>
+        <v>-0.9458901496047144</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02733531721022862</v>
+        <v>0.0266081203761877</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07852149396528096</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03937813750730018</v>
+        <v>0.04065781505291764</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9236240751147949</v>
+        <v>-0.9304915205410298</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008470469761119426</v>
+        <v>-0.008353992346143174</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09459509422183215</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07283368565022585</v>
+        <v>-0.07130688710256418</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9245228400330576</v>
+        <v>-0.9312761690729983</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0507423272827707</v>
+        <v>-0.0500607770032475</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1095699197082364</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1286846061313381</v>
+        <v>-0.1271263272012505</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9044556702555951</v>
+        <v>-0.9122997945465972</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08110830417090356</v>
+        <v>-0.08028351815134201</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1238501760993398</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2080639644376532</v>
+        <v>-0.2076122209498398</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9127145485850598</v>
+        <v>-0.9226292950301329</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1057007789221055</v>
+        <v>-0.1061462263334336</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1379213939146113</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3018581898568398</v>
+        <v>-0.3005202736037342</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9089636610190003</v>
+        <v>-0.9188697503589062</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1247385401942373</v>
+        <v>-0.1257348942980207</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1517055760853584</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3943869039025008</v>
+        <v>-0.3946167106942107</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.890723927441368</v>
+        <v>-0.9001822083412637</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1467653637777191</v>
+        <v>-0.1481536486427064</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1647410136294536</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5030713502091919</v>
+        <v>-0.5026542351420472</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8792926135729217</v>
+        <v>-0.8898959933835637</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1760169351279711</v>
+        <v>-0.1765615457439412</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1767458934587796</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5667451457231687</v>
+        <v>-0.5664130276885743</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8887949670082139</v>
+        <v>-0.8996092653811103</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1971843442712228</v>
+        <v>-0.1984089311475947</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1871062803348794</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6880784096886322</v>
+        <v>-0.6862336592784678</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9103873613142168</v>
+        <v>-0.9224931423761403</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2343957303178923</v>
+        <v>-0.2350583923679599</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1952307532047637</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8101766469470478</v>
+        <v>-0.8089331718412203</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9441807648389819</v>
+        <v>-0.95770788516744</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2802232970345619</v>
+        <v>-0.2805506930117924</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2012215801225334</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9066388347768392</v>
+        <v>-0.9051010180953284</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9734402062848404</v>
+        <v>-0.9863259138213685</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3067392231519933</v>
+        <v>-0.3080551031374006</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2050513122949835</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9498999633162279</v>
+        <v>-0.9487351891664655</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.012571895659497</v>
+        <v>-1.025591394821335</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3468845808407673</v>
+        <v>-0.34778334575903</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2069654387201675</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9955111024037187</v>
+        <v>-0.9947327499482355</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.023619148862346</v>
+        <v>-1.036910166322609</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3696622115451095</v>
+        <v>-0.3711008650219784</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2069625669110046</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.062576909124098</v>
+        <v>-1.060706974407993</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.071943896914959</v>
+        <v>-1.085780312000752</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3897907680683028</v>
+        <v>-0.3907997143250565</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2055351285292041</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.089568189016163</v>
+        <v>-1.089260468277948</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.116230498911875</v>
+        <v>-1.130098394380095</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4034721422706483</v>
+        <v>-0.4040592514028935</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2027764497381412</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.110274410556873</v>
+        <v>-1.108976631791361</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.124908066327606</v>
+        <v>-1.139642459322101</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4333423031355715</v>
+        <v>-0.434025427434216</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1987364494420078</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.136177256226558</v>
+        <v>-1.135696393385</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.168290394339335</v>
+        <v>-1.181534978235519</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4110793766838945</v>
+        <v>-0.4122252626042014</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1934908752197649</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.112326931491049</v>
+        <v>-1.109813222954332</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.192509039549227</v>
+        <v>-1.20596847705547</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4179483961292508</v>
+        <v>-0.4197962945776578</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1871599795854828</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.116619281634836</v>
+        <v>-1.11397414250149</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.216176778066665</v>
+        <v>-1.227499484615742</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4226232329195138</v>
+        <v>-0.4230938646367827</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1795789500338789</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.07544215441205</v>
+        <v>-1.072279949997356</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.232373434824849</v>
+        <v>-1.245266225447423</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4300557512102957</v>
+        <v>-0.4301643585296654</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1705933989699206</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.986140179565055</v>
+        <v>-0.9846598145814717</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.248230103452832</v>
+        <v>-1.261312563379523</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4034973265765892</v>
+        <v>-0.4038861092995504</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1600324986268968</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9247188054136596</v>
+        <v>-0.9245495983581197</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.257329507993072</v>
+        <v>-1.271013243224099</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3861768201657964</v>
+        <v>-0.3868819807321391</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1480007991664634</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7758236796246604</v>
+        <v>-0.775790625223113</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.243849608238253</v>
+        <v>-1.257080812971906</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3424820493584893</v>
+        <v>-0.3432281344219858</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1346240689925153</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6621794990667507</v>
+        <v>-0.6627241096827207</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.2640190892586</v>
+        <v>-1.276854428183246</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3276658073696859</v>
+        <v>-0.3280105175572507</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1201446161117831</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5041700155558598</v>
+        <v>-0.5043085292385343</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.259398556128021</v>
+        <v>-1.271696367522744</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3049873398699856</v>
+        <v>-0.3066164496605318</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1044006368911613</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3589636035776288</v>
+        <v>-0.3595507127098739</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.277546996596618</v>
+        <v>-1.286411872287784</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2819248117046879</v>
+        <v>-0.2825150688751757</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.08733958054833066</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1975243324014237</v>
+        <v>-0.1976156255104592</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289699998232181</v>
+        <v>-1.297792030534788</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2564776445706197</v>
+        <v>-0.2572410438444505</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06930149885762928</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.002610396572516965</v>
+        <v>-0.002171245237674073</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.269518712068424</v>
+        <v>-1.275956450274544</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1914785249565078</v>
+        <v>-0.1931501332633291</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05054162973835975</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1616967374426979</v>
+        <v>0.1623924538943128</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.267836085627754</v>
+        <v>-1.275060046384963</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1678021293339028</v>
+        <v>-0.1698452061533511</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03145328563993724</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3310533247990454</v>
+        <v>0.3339259096954192</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.18909971413249</v>
+        <v>-1.19286240684196</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1223712154358011</v>
+        <v>-0.1241152286222023</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0133121459343265</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5344968702462807</v>
+        <v>0.538079337766361</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119505245693741</v>
+        <v>-1.121574293828691</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06957546606913342</v>
+        <v>-0.07055135792433985</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.002336973457177356</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7239473857051527</v>
+        <v>0.7274369860970763</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037410704403182</v>
+        <v>-1.037180110601912</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02346772394887238</v>
+        <v>-0.02428936193019134</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01338202929591917</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8812690228600352</v>
+        <v>0.8866175398342149</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.912610663323054</v>
+        <v>-0.9110161819531764</v>
       </c>
       <c r="G88" t="n">
-        <v>0.000529771574477907</v>
+        <v>0.0006116205687855428</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01746683162004691</v>
       </c>
       <c r="E89" t="n">
-        <v>1.021267005565882</v>
+        <v>1.026999583205659</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8071844365974552</v>
+        <v>-0.8031895760675941</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03496143985293045</v>
+        <v>0.03304743260142882</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01257514783961627</v>
       </c>
       <c r="E90" t="n">
-        <v>1.12228755277096</v>
+        <v>1.13039532526478</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6619969128486798</v>
+        <v>-0.6576951185901651</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05277933630605424</v>
+        <v>0.0513202205806085</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.002288219078310536</v>
       </c>
       <c r="E91" t="n">
-        <v>1.222766637398311</v>
+        <v>1.229975644973868</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4886423169242285</v>
+        <v>-0.483059271100975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02717948931721985</v>
+        <v>0.026143784735404</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02630437804392392</v>
       </c>
       <c r="E92" t="n">
-        <v>1.259630165219173</v>
+        <v>1.267733215655629</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3391561469551809</v>
+        <v>-0.3328899768332829</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05465556709864466</v>
+        <v>0.05316969304813681</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05768261385091991</v>
       </c>
       <c r="E93" t="n">
-        <v>1.288732204752902</v>
+        <v>1.298165301346857</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2316128645114327</v>
+        <v>-0.2247233828174996</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04250256546308205</v>
+        <v>0.04138658590607986</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09297917112200278</v>
       </c>
       <c r="E94" t="n">
-        <v>1.239526793001921</v>
+        <v>1.249677642315189</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1046587782638045</v>
+        <v>-0.09679655275290752</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05995056742270017</v>
+        <v>0.05812785328023398</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1290818345557794</v>
       </c>
       <c r="E95" t="n">
-        <v>1.210152448160207</v>
+        <v>1.218894550359911</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01633584331025896</v>
+        <v>-0.009329884201349602</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01657847053525972</v>
+        <v>0.01448659912305111</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1622218486746053</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121668963256289</v>
+        <v>1.12995932196818</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06199364424214846</v>
+        <v>0.06740512198118023</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02483554656528268</v>
+        <v>-0.02710685615731957</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1910578275177602</v>
       </c>
       <c r="E97" t="n">
-        <v>1.061253387323405</v>
+        <v>1.067546315770365</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1099650250020295</v>
+        <v>0.1152411370966294</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01133361054276538</v>
+        <v>-0.01393703816939671</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2121758003030017</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9595371236667118</v>
+        <v>0.9666800224391744</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1064014457114048</v>
+        <v>0.1118333856990134</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06454332693833513</v>
+        <v>-0.0665376091650231</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2253085602750023</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9021310722937544</v>
+        <v>0.9063352773667486</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200355993401113</v>
+        <v>0.1253652280848355</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0564607387504561</v>
+        <v>-0.05899490953575021</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2288669957137864</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8495997581394653</v>
+        <v>0.853665449529785</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1131114892255096</v>
+        <v>0.1174337457326013</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0647133210034356</v>
+        <v>-0.06666510471384846</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2253807685187003</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7698457832822808</v>
+        <v>0.7730866886530389</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1073017846487888</v>
+        <v>0.1120332861274186</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06242941925842831</v>
+        <v>-0.06497618219669282</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2133602583219244</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7470382462146338</v>
+        <v>0.7487854074392776</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1065242192028662</v>
+        <v>0.1114729353202356</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06236645849357628</v>
+        <v>-0.06435601866290035</v>
       </c>
     </row>
   </sheetData>
